--- a/DATA/SOURCE/TaxReport/tax_report_2425.xlsx
+++ b/DATA/SOURCE/TaxReport/tax_report_2425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashant.tripathi\Code\Upstox\DATA\SOURCE\TaxReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918AB998-8034-49CB-B31E-CFD9425639E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551A8D6D-4984-4FD9-A201-668548EDD773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="52">
   <si>
     <t>UPSTOX SECURITIES PRIVATE LIMITED</t>
   </si>
@@ -92,7 +92,7 @@
     <t>NIFTY</t>
   </si>
   <si>
-    <t>5373.7500</t>
+    <t>5720.0000</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>5373.75</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -649,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>2122.5700000000002</v>
+        <v>2236.48</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,11 +957,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S126"/>
+  <dimension ref="A1:S132"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="N119" sqref="N119"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1035,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>5373.75</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1043,7 +1041,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>2122.5700000000002</v>
+        <v>2236.48</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1064,7 +1062,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="1">
-        <v>2180</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1072,7 +1070,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="1">
-        <v>458.29</v>
+        <v>492.8</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -1080,7 +1078,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="1">
-        <v>3.71</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -1088,7 +1086,7 @@
         <v>46</v>
       </c>
       <c r="B18" s="1">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -1096,7 +1094,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="1">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1112,7 +1110,7 @@
         <v>48</v>
       </c>
       <c r="B21" s="1">
-        <v>365.42</v>
+        <v>377.12</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -1120,7 +1118,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>3251.18</v>
+        <v>3483.52</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -4096,40 +4094,40 @@
         <v>50</v>
       </c>
       <c r="F83">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G83" s="2">
-        <v>45503</v>
+        <v>45505</v>
       </c>
       <c r="H83" s="1">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I83" s="1">
-        <v>1400</v>
+        <v>175</v>
       </c>
       <c r="J83" s="2">
-        <v>45503</v>
+        <v>45505</v>
       </c>
       <c r="K83" s="1">
-        <v>28.7</v>
+        <v>12.8</v>
       </c>
       <c r="L83" s="1">
-        <v>1435</v>
+        <v>320</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="O83">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="R83">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="S83">
-        <v>25150</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
@@ -4146,40 +4144,40 @@
         <v>50</v>
       </c>
       <c r="F84">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G84" s="2">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="H84" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I84" s="1">
-        <v>900</v>
+        <v>175</v>
       </c>
       <c r="J84" s="2">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="K84" s="1">
-        <v>10.35</v>
+        <v>12.8</v>
       </c>
       <c r="L84" s="1">
-        <v>1035</v>
+        <v>320</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
       <c r="N84">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="O84">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="R84">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="S84">
-        <v>25400</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
@@ -4193,43 +4191,43 @@
         <v>49</v>
       </c>
       <c r="E85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F85">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G85" s="2">
-        <v>45457</v>
+        <v>45505</v>
       </c>
       <c r="H85" s="1">
-        <v>124.7</v>
+        <v>7</v>
       </c>
       <c r="I85" s="1">
-        <v>3117.5</v>
+        <v>525</v>
       </c>
       <c r="J85" s="2">
-        <v>45457</v>
+        <v>45505</v>
       </c>
       <c r="K85" s="1">
-        <v>128</v>
+        <v>12.8</v>
       </c>
       <c r="L85" s="1">
-        <v>3200</v>
+        <v>960</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
       <c r="N85">
-        <v>82.5</v>
+        <v>435</v>
       </c>
       <c r="O85">
-        <v>82.5</v>
+        <v>435</v>
       </c>
       <c r="R85">
-        <v>82.5</v>
+        <v>435</v>
       </c>
       <c r="S85">
-        <v>23450</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
@@ -4243,43 +4241,43 @@
         <v>49</v>
       </c>
       <c r="E86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F86">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G86" s="2">
-        <v>45462</v>
+        <v>45503</v>
       </c>
       <c r="H86" s="1">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="I86" s="1">
-        <v>1875</v>
+        <v>1400</v>
       </c>
       <c r="J86" s="2">
-        <v>45462</v>
+        <v>45503</v>
       </c>
       <c r="K86" s="1">
-        <v>100</v>
+        <v>28.7</v>
       </c>
       <c r="L86" s="1">
-        <v>2500</v>
+        <v>1435</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
       <c r="N86">
-        <v>625</v>
+        <v>35</v>
       </c>
       <c r="O86">
-        <v>625</v>
+        <v>35</v>
       </c>
       <c r="R86">
-        <v>625</v>
+        <v>35</v>
       </c>
       <c r="S86">
-        <v>23600</v>
+        <v>25150</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
@@ -4293,43 +4291,43 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F87">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G87" s="2">
-        <v>45467</v>
+        <v>45502</v>
       </c>
       <c r="H87" s="1">
-        <v>137.69999999999999</v>
+        <v>9</v>
       </c>
       <c r="I87" s="1">
-        <v>3442.5</v>
+        <v>900</v>
       </c>
       <c r="J87" s="2">
-        <v>45467</v>
+        <v>45502</v>
       </c>
       <c r="K87" s="1">
-        <v>140.94999999999999</v>
+        <v>10.35</v>
       </c>
       <c r="L87" s="1">
-        <v>3523.75</v>
+        <v>1035</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87">
-        <v>81.25</v>
+        <v>135</v>
       </c>
       <c r="O87">
-        <v>81.25</v>
+        <v>135</v>
       </c>
       <c r="R87">
-        <v>81.25</v>
+        <v>135</v>
       </c>
       <c r="S87">
-        <v>23550</v>
+        <v>25400</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
@@ -4349,37 +4347,37 @@
         <v>25</v>
       </c>
       <c r="G88" s="2">
-        <v>45467</v>
+        <v>45457</v>
       </c>
       <c r="H88" s="1">
-        <v>137.6</v>
+        <v>124.7</v>
       </c>
       <c r="I88" s="1">
-        <v>3440</v>
+        <v>3117.5</v>
       </c>
       <c r="J88" s="2">
-        <v>45467</v>
+        <v>45457</v>
       </c>
       <c r="K88" s="1">
-        <v>140.94999999999999</v>
+        <v>128</v>
       </c>
       <c r="L88" s="1">
-        <v>3523.75</v>
+        <v>3200</v>
       </c>
       <c r="M88">
         <v>0</v>
       </c>
       <c r="N88">
-        <v>83.75</v>
+        <v>82.5</v>
       </c>
       <c r="O88">
-        <v>83.75</v>
+        <v>82.5</v>
       </c>
       <c r="R88">
-        <v>83.75</v>
+        <v>82.5</v>
       </c>
       <c r="S88">
-        <v>23550</v>
+        <v>23450</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
@@ -4399,37 +4397,37 @@
         <v>25</v>
       </c>
       <c r="G89" s="2">
-        <v>45467</v>
+        <v>45462</v>
       </c>
       <c r="H89" s="1">
-        <v>137.6</v>
+        <v>75</v>
       </c>
       <c r="I89" s="1">
-        <v>3440</v>
+        <v>1875</v>
       </c>
       <c r="J89" s="2">
-        <v>45467</v>
+        <v>45462</v>
       </c>
       <c r="K89" s="1">
-        <v>140.94999999999999</v>
+        <v>100</v>
       </c>
       <c r="L89" s="1">
-        <v>3523.75</v>
+        <v>2500</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89">
-        <v>83.75</v>
+        <v>625</v>
       </c>
       <c r="O89">
-        <v>83.75</v>
+        <v>625</v>
       </c>
       <c r="R89">
-        <v>83.75</v>
+        <v>625</v>
       </c>
       <c r="S89">
-        <v>23550</v>
+        <v>23600</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
@@ -4452,10 +4450,10 @@
         <v>45467</v>
       </c>
       <c r="H90" s="1">
-        <v>137.6</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="I90" s="1">
-        <v>3440</v>
+        <v>3442.5</v>
       </c>
       <c r="J90" s="2">
         <v>45467</v>
@@ -4470,13 +4468,13 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>83.75</v>
+        <v>81.25</v>
       </c>
       <c r="O90">
-        <v>83.75</v>
+        <v>81.25</v>
       </c>
       <c r="R90">
-        <v>83.75</v>
+        <v>81.25</v>
       </c>
       <c r="S90">
         <v>23550</v>
@@ -4499,37 +4497,37 @@
         <v>25</v>
       </c>
       <c r="G91" s="2">
-        <v>45475</v>
+        <v>45467</v>
       </c>
       <c r="H91" s="1">
-        <v>125</v>
+        <v>137.6</v>
       </c>
       <c r="I91" s="1">
-        <v>3125</v>
+        <v>3440</v>
       </c>
       <c r="J91" s="2">
-        <v>45475</v>
+        <v>45467</v>
       </c>
       <c r="K91" s="1">
-        <v>140.35</v>
+        <v>140.94999999999999</v>
       </c>
       <c r="L91" s="1">
-        <v>3508.75</v>
+        <v>3523.75</v>
       </c>
       <c r="M91">
         <v>0</v>
       </c>
       <c r="N91">
-        <v>383.75</v>
+        <v>83.75</v>
       </c>
       <c r="O91">
-        <v>383.75</v>
+        <v>83.75</v>
       </c>
       <c r="R91">
-        <v>383.75</v>
+        <v>83.75</v>
       </c>
       <c r="S91">
-        <v>24150</v>
+        <v>23550</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.35">
@@ -4549,37 +4547,37 @@
         <v>25</v>
       </c>
       <c r="G92" s="2">
-        <v>45476</v>
+        <v>45467</v>
       </c>
       <c r="H92" s="1">
-        <v>104.55</v>
+        <v>137.6</v>
       </c>
       <c r="I92" s="1">
-        <v>2613.75</v>
+        <v>3440</v>
       </c>
       <c r="J92" s="2">
-        <v>45476</v>
+        <v>45467</v>
       </c>
       <c r="K92" s="1">
-        <v>56.5</v>
+        <v>140.94999999999999</v>
       </c>
       <c r="L92" s="1">
-        <v>1412.5</v>
+        <v>3523.75</v>
       </c>
       <c r="M92">
         <v>0</v>
       </c>
       <c r="N92">
-        <v>-1201.25</v>
+        <v>83.75</v>
       </c>
       <c r="O92">
-        <v>-1201.25</v>
+        <v>83.75</v>
       </c>
       <c r="R92">
-        <v>1201.25</v>
+        <v>83.75</v>
       </c>
       <c r="S92">
-        <v>24250</v>
+        <v>23550</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
@@ -4599,37 +4597,37 @@
         <v>25</v>
       </c>
       <c r="G93" s="2">
-        <v>45476</v>
+        <v>45467</v>
       </c>
       <c r="H93" s="1">
-        <v>104.55</v>
+        <v>137.6</v>
       </c>
       <c r="I93" s="1">
-        <v>2613.75</v>
+        <v>3440</v>
       </c>
       <c r="J93" s="2">
-        <v>45476</v>
+        <v>45467</v>
       </c>
       <c r="K93" s="1">
-        <v>56.5</v>
+        <v>140.94999999999999</v>
       </c>
       <c r="L93" s="1">
-        <v>1412.5</v>
+        <v>3523.75</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93">
-        <v>-1201.25</v>
+        <v>83.75</v>
       </c>
       <c r="O93">
-        <v>-1201.25</v>
+        <v>83.75</v>
       </c>
       <c r="R93">
-        <v>1201.25</v>
+        <v>83.75</v>
       </c>
       <c r="S93">
-        <v>24250</v>
+        <v>23550</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
@@ -4649,37 +4647,37 @@
         <v>25</v>
       </c>
       <c r="G94" s="2">
-        <v>45476</v>
+        <v>45475</v>
       </c>
       <c r="H94" s="1">
-        <v>104.55</v>
+        <v>125</v>
       </c>
       <c r="I94" s="1">
-        <v>2613.75</v>
+        <v>3125</v>
       </c>
       <c r="J94" s="2">
-        <v>45476</v>
+        <v>45475</v>
       </c>
       <c r="K94" s="1">
-        <v>56.5</v>
+        <v>140.35</v>
       </c>
       <c r="L94" s="1">
-        <v>1412.5</v>
+        <v>3508.75</v>
       </c>
       <c r="M94">
         <v>0</v>
       </c>
       <c r="N94">
-        <v>-1201.25</v>
+        <v>383.75</v>
       </c>
       <c r="O94">
-        <v>-1201.25</v>
+        <v>383.75</v>
       </c>
       <c r="R94">
-        <v>1201.25</v>
+        <v>383.75</v>
       </c>
       <c r="S94">
-        <v>24250</v>
+        <v>24150</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
@@ -4752,10 +4750,10 @@
         <v>45476</v>
       </c>
       <c r="H96" s="1">
-        <v>63</v>
+        <v>104.55</v>
       </c>
       <c r="I96" s="1">
-        <v>1575</v>
+        <v>2613.75</v>
       </c>
       <c r="J96" s="2">
         <v>45476</v>
@@ -4770,13 +4768,13 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>-162.5</v>
+        <v>-1201.25</v>
       </c>
       <c r="O96">
-        <v>-162.5</v>
+        <v>-1201.25</v>
       </c>
       <c r="R96">
-        <v>162.5</v>
+        <v>1201.25</v>
       </c>
       <c r="S96">
         <v>24250</v>
@@ -4802,10 +4800,10 @@
         <v>45476</v>
       </c>
       <c r="H97" s="1">
-        <v>63</v>
+        <v>104.55</v>
       </c>
       <c r="I97" s="1">
-        <v>1575</v>
+        <v>2613.75</v>
       </c>
       <c r="J97" s="2">
         <v>45476</v>
@@ -4820,13 +4818,13 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>-162.5</v>
+        <v>-1201.25</v>
       </c>
       <c r="O97">
-        <v>-162.5</v>
+        <v>-1201.25</v>
       </c>
       <c r="R97">
-        <v>162.5</v>
+        <v>1201.25</v>
       </c>
       <c r="S97">
         <v>24250</v>
@@ -4849,37 +4847,37 @@
         <v>25</v>
       </c>
       <c r="G98" s="2">
-        <v>45478</v>
+        <v>45476</v>
       </c>
       <c r="H98" s="1">
-        <v>50.35</v>
+        <v>104.55</v>
       </c>
       <c r="I98" s="1">
-        <v>1258.75</v>
+        <v>2613.75</v>
       </c>
       <c r="J98" s="2">
-        <v>45478</v>
+        <v>45476</v>
       </c>
       <c r="K98" s="1">
-        <v>57.5</v>
+        <v>56.5</v>
       </c>
       <c r="L98" s="1">
-        <v>1437.5</v>
+        <v>1412.5</v>
       </c>
       <c r="M98">
         <v>0</v>
       </c>
       <c r="N98">
-        <v>178.75</v>
+        <v>-1201.25</v>
       </c>
       <c r="O98">
-        <v>178.75</v>
+        <v>-1201.25</v>
       </c>
       <c r="R98">
-        <v>178.75</v>
+        <v>1201.25</v>
       </c>
       <c r="S98">
-        <v>24000</v>
+        <v>24250</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.35">
@@ -4899,37 +4897,37 @@
         <v>25</v>
       </c>
       <c r="G99" s="2">
-        <v>45478</v>
+        <v>45476</v>
       </c>
       <c r="H99" s="1">
-        <v>119.15</v>
+        <v>63</v>
       </c>
       <c r="I99" s="1">
-        <v>2978.75</v>
+        <v>1575</v>
       </c>
       <c r="J99" s="2">
-        <v>45478</v>
+        <v>45476</v>
       </c>
       <c r="K99" s="1">
-        <v>121.15</v>
+        <v>56.5</v>
       </c>
       <c r="L99" s="1">
-        <v>3028.75</v>
+        <v>1412.5</v>
       </c>
       <c r="M99">
         <v>0</v>
       </c>
       <c r="N99">
-        <v>50</v>
+        <v>-162.5</v>
       </c>
       <c r="O99">
-        <v>50</v>
+        <v>-162.5</v>
       </c>
       <c r="R99">
-        <v>50</v>
+        <v>162.5</v>
       </c>
       <c r="S99">
-        <v>24300</v>
+        <v>24250</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.35">
@@ -4949,37 +4947,37 @@
         <v>25</v>
       </c>
       <c r="G100" s="2">
-        <v>45478</v>
+        <v>45476</v>
       </c>
       <c r="H100" s="1">
-        <v>119.15</v>
+        <v>63</v>
       </c>
       <c r="I100" s="1">
-        <v>2978.75</v>
+        <v>1575</v>
       </c>
       <c r="J100" s="2">
-        <v>45478</v>
+        <v>45476</v>
       </c>
       <c r="K100" s="1">
-        <v>121.15</v>
+        <v>56.5</v>
       </c>
       <c r="L100" s="1">
-        <v>3028.75</v>
+        <v>1412.5</v>
       </c>
       <c r="M100">
         <v>0</v>
       </c>
       <c r="N100">
-        <v>50</v>
+        <v>-162.5</v>
       </c>
       <c r="O100">
-        <v>50</v>
+        <v>-162.5</v>
       </c>
       <c r="R100">
-        <v>50</v>
+        <v>162.5</v>
       </c>
       <c r="S100">
-        <v>24300</v>
+        <v>24250</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
@@ -4996,40 +4994,40 @@
         <v>51</v>
       </c>
       <c r="F101">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G101" s="2">
         <v>45478</v>
       </c>
       <c r="H101" s="1">
-        <v>120</v>
+        <v>50.35</v>
       </c>
       <c r="I101" s="1">
-        <v>6000</v>
+        <v>1258.75</v>
       </c>
       <c r="J101" s="2">
         <v>45478</v>
       </c>
       <c r="K101" s="1">
-        <v>121.15</v>
+        <v>57.5</v>
       </c>
       <c r="L101" s="1">
-        <v>6057.5</v>
+        <v>1437.5</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
       <c r="N101">
-        <v>57.5</v>
+        <v>178.75</v>
       </c>
       <c r="O101">
-        <v>57.5</v>
+        <v>178.75</v>
       </c>
       <c r="R101">
-        <v>57.5</v>
+        <v>178.75</v>
       </c>
       <c r="S101">
-        <v>24300</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
@@ -5049,37 +5047,37 @@
         <v>25</v>
       </c>
       <c r="G102" s="2">
-        <v>45482</v>
+        <v>45478</v>
       </c>
       <c r="H102" s="1">
-        <v>80.3</v>
+        <v>119.15</v>
       </c>
       <c r="I102" s="1">
-        <v>2007.5</v>
+        <v>2978.75</v>
       </c>
       <c r="J102" s="2">
-        <v>45482</v>
+        <v>45478</v>
       </c>
       <c r="K102" s="1">
-        <v>80.55</v>
+        <v>121.15</v>
       </c>
       <c r="L102" s="1">
-        <v>2013.75</v>
+        <v>3028.75</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="N102">
-        <v>6.25</v>
+        <v>50</v>
       </c>
       <c r="O102">
-        <v>6.25</v>
+        <v>50</v>
       </c>
       <c r="R102">
-        <v>6.25</v>
+        <v>50</v>
       </c>
       <c r="S102">
-        <v>24350</v>
+        <v>24300</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
@@ -5096,40 +5094,40 @@
         <v>51</v>
       </c>
       <c r="F103">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G103" s="2">
-        <v>45482</v>
+        <v>45478</v>
       </c>
       <c r="H103" s="1">
-        <v>80.3</v>
+        <v>119.15</v>
       </c>
       <c r="I103" s="1">
-        <v>6022.5</v>
+        <v>2978.75</v>
       </c>
       <c r="J103" s="2">
-        <v>45482</v>
+        <v>45478</v>
       </c>
       <c r="K103" s="1">
-        <v>80.55</v>
+        <v>121.15</v>
       </c>
       <c r="L103" s="1">
-        <v>6041.25</v>
+        <v>3028.75</v>
       </c>
       <c r="M103">
         <v>0</v>
       </c>
       <c r="N103">
-        <v>18.75</v>
+        <v>50</v>
       </c>
       <c r="O103">
-        <v>18.75</v>
+        <v>50</v>
       </c>
       <c r="R103">
-        <v>18.75</v>
+        <v>50</v>
       </c>
       <c r="S103">
-        <v>24350</v>
+        <v>24300</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.35">
@@ -5149,37 +5147,37 @@
         <v>50</v>
       </c>
       <c r="G104" s="2">
-        <v>45488</v>
+        <v>45478</v>
       </c>
       <c r="H104" s="1">
-        <v>115.25</v>
+        <v>120</v>
       </c>
       <c r="I104" s="1">
-        <v>5762.5</v>
+        <v>6000</v>
       </c>
       <c r="J104" s="2">
-        <v>45488</v>
+        <v>45478</v>
       </c>
       <c r="K104" s="1">
-        <v>115.75</v>
+        <v>121.15</v>
       </c>
       <c r="L104" s="1">
-        <v>5787.5</v>
+        <v>6057.5</v>
       </c>
       <c r="M104">
         <v>0</v>
       </c>
       <c r="N104">
-        <v>25</v>
+        <v>57.5</v>
       </c>
       <c r="O104">
-        <v>25</v>
+        <v>57.5</v>
       </c>
       <c r="R104">
-        <v>25</v>
+        <v>57.5</v>
       </c>
       <c r="S104">
-        <v>24650</v>
+        <v>24300</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
@@ -5199,37 +5197,37 @@
         <v>25</v>
       </c>
       <c r="G105" s="2">
-        <v>45489</v>
+        <v>45482</v>
       </c>
       <c r="H105" s="1">
-        <v>77.7</v>
+        <v>80.3</v>
       </c>
       <c r="I105" s="1">
-        <v>1942.5</v>
+        <v>2007.5</v>
       </c>
       <c r="J105" s="2">
-        <v>45491</v>
+        <v>45482</v>
       </c>
       <c r="K105" s="1">
-        <v>70.25</v>
+        <v>80.55</v>
       </c>
       <c r="L105" s="1">
-        <v>1756.25</v>
+        <v>2013.75</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N105">
-        <v>-186.25</v>
+        <v>6.25</v>
       </c>
       <c r="O105">
-        <v>-186.25</v>
+        <v>6.25</v>
       </c>
       <c r="R105">
-        <v>186.25</v>
+        <v>6.25</v>
       </c>
       <c r="S105">
-        <v>24650</v>
+        <v>24350</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
@@ -5246,40 +5244,40 @@
         <v>51</v>
       </c>
       <c r="F106">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G106" s="2">
-        <v>45489</v>
+        <v>45482</v>
       </c>
       <c r="H106" s="1">
-        <v>77.650000000000006</v>
+        <v>80.3</v>
       </c>
       <c r="I106" s="1">
-        <v>1941.25</v>
+        <v>6022.5</v>
       </c>
       <c r="J106" s="2">
-        <v>45491</v>
+        <v>45482</v>
       </c>
       <c r="K106" s="1">
-        <v>70.25</v>
+        <v>80.55</v>
       </c>
       <c r="L106" s="1">
-        <v>1756.25</v>
+        <v>6041.25</v>
       </c>
       <c r="M106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>-185</v>
+        <v>18.75</v>
       </c>
       <c r="O106">
-        <v>-185</v>
+        <v>18.75</v>
       </c>
       <c r="R106">
-        <v>185</v>
+        <v>18.75</v>
       </c>
       <c r="S106">
-        <v>24650</v>
+        <v>24350</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
@@ -5296,37 +5294,37 @@
         <v>51</v>
       </c>
       <c r="F107">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G107" s="2">
-        <v>45491</v>
+        <v>45488</v>
       </c>
       <c r="H107" s="1">
-        <v>3</v>
+        <v>115.25</v>
       </c>
       <c r="I107" s="1">
-        <v>300</v>
+        <v>5762.5</v>
       </c>
       <c r="J107" s="2">
-        <v>45491</v>
+        <v>45488</v>
       </c>
       <c r="K107" s="1">
-        <v>0</v>
+        <v>115.75</v>
       </c>
       <c r="L107" s="1">
-        <v>0</v>
+        <v>5787.5</v>
       </c>
       <c r="M107">
         <v>0</v>
       </c>
       <c r="N107">
-        <v>-300</v>
+        <v>25</v>
       </c>
       <c r="O107">
-        <v>-300</v>
+        <v>25</v>
       </c>
       <c r="R107">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="S107">
         <v>24650</v>
@@ -5346,40 +5344,40 @@
         <v>51</v>
       </c>
       <c r="F108">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G108" s="2">
-        <v>45495</v>
+        <v>45489</v>
       </c>
       <c r="H108" s="1">
-        <v>252.15</v>
+        <v>77.7</v>
       </c>
       <c r="I108" s="1">
-        <v>18911.25</v>
+        <v>1942.5</v>
       </c>
       <c r="J108" s="2">
-        <v>45495</v>
+        <v>45491</v>
       </c>
       <c r="K108" s="1">
-        <v>253.6</v>
+        <v>70.25</v>
       </c>
       <c r="L108" s="1">
-        <v>19020</v>
+        <v>1756.25</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N108">
-        <v>108.75</v>
+        <v>-186.25</v>
       </c>
       <c r="O108">
-        <v>108.75</v>
+        <v>-186.25</v>
       </c>
       <c r="R108">
-        <v>108.75</v>
+        <v>186.25</v>
       </c>
       <c r="S108">
-        <v>24600</v>
+        <v>24650</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
@@ -5396,40 +5394,40 @@
         <v>51</v>
       </c>
       <c r="F109">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G109" s="2">
-        <v>45502</v>
+        <v>45489</v>
       </c>
       <c r="H109" s="1">
-        <v>12</v>
+        <v>77.650000000000006</v>
       </c>
       <c r="I109" s="1">
-        <v>600</v>
+        <v>1941.25</v>
       </c>
       <c r="J109" s="2">
-        <v>45502</v>
+        <v>45491</v>
       </c>
       <c r="K109" s="1">
-        <v>10.45</v>
+        <v>70.25</v>
       </c>
       <c r="L109" s="1">
-        <v>522.5</v>
+        <v>1756.25</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>-77.5</v>
+        <v>-185</v>
       </c>
       <c r="O109">
-        <v>-77.5</v>
+        <v>-185</v>
       </c>
       <c r="R109">
-        <v>77.5</v>
+        <v>185</v>
       </c>
       <c r="S109">
-        <v>24450</v>
+        <v>24650</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
@@ -5446,40 +5444,40 @@
         <v>51</v>
       </c>
       <c r="F110">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G110" s="2">
-        <v>45502</v>
+        <v>45491</v>
       </c>
       <c r="H110" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I110" s="1">
         <v>300</v>
       </c>
       <c r="J110" s="2">
-        <v>45502</v>
+        <v>45491</v>
       </c>
       <c r="K110" s="1">
-        <v>10.45</v>
+        <v>0</v>
       </c>
       <c r="L110" s="1">
-        <v>261.25</v>
+        <v>0</v>
       </c>
       <c r="M110">
         <v>0</v>
       </c>
       <c r="N110">
-        <v>-38.75</v>
+        <v>-300</v>
       </c>
       <c r="O110">
-        <v>-38.75</v>
+        <v>-300</v>
       </c>
       <c r="R110">
-        <v>38.75</v>
+        <v>300</v>
       </c>
       <c r="S110">
-        <v>24450</v>
+        <v>24650</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
@@ -5496,40 +5494,40 @@
         <v>51</v>
       </c>
       <c r="F111">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G111" s="2">
-        <v>45499</v>
+        <v>45495</v>
       </c>
       <c r="H111" s="1">
-        <v>138</v>
+        <v>252.15</v>
       </c>
       <c r="I111" s="1">
-        <v>3450</v>
+        <v>18911.25</v>
       </c>
       <c r="J111" s="2">
-        <v>45499</v>
+        <v>45495</v>
       </c>
       <c r="K111" s="1">
-        <v>106.15</v>
+        <v>253.6</v>
       </c>
       <c r="L111" s="1">
-        <v>2653.75</v>
+        <v>19020</v>
       </c>
       <c r="M111">
         <v>0</v>
       </c>
       <c r="N111">
-        <v>-796.25</v>
+        <v>108.75</v>
       </c>
       <c r="O111">
-        <v>-796.25</v>
+        <v>108.75</v>
       </c>
       <c r="R111">
-        <v>796.25</v>
+        <v>108.75</v>
       </c>
       <c r="S111">
-        <v>24650</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
@@ -5552,34 +5550,34 @@
         <v>45502</v>
       </c>
       <c r="H112" s="1">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I112" s="1">
-        <v>6250</v>
+        <v>600</v>
       </c>
       <c r="J112" s="2">
         <v>45502</v>
       </c>
       <c r="K112" s="1">
-        <v>83.85</v>
+        <v>10.45</v>
       </c>
       <c r="L112" s="1">
-        <v>4192.5</v>
+        <v>522.5</v>
       </c>
       <c r="M112">
         <v>0</v>
       </c>
       <c r="N112">
-        <v>-2057.5</v>
+        <v>-77.5</v>
       </c>
       <c r="O112">
-        <v>-2057.5</v>
+        <v>-77.5</v>
       </c>
       <c r="R112">
-        <v>2057.5</v>
+        <v>77.5</v>
       </c>
       <c r="S112">
-        <v>24900</v>
+        <v>24450</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
@@ -5602,34 +5600,34 @@
         <v>45502</v>
       </c>
       <c r="H113" s="1">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I113" s="1">
-        <v>3125</v>
+        <v>300</v>
       </c>
       <c r="J113" s="2">
         <v>45502</v>
       </c>
       <c r="K113" s="1">
-        <v>83.9</v>
+        <v>10.45</v>
       </c>
       <c r="L113" s="1">
-        <v>2097.5</v>
+        <v>261.25</v>
       </c>
       <c r="M113">
         <v>0</v>
       </c>
       <c r="N113">
-        <v>-1027.5</v>
+        <v>-38.75</v>
       </c>
       <c r="O113">
-        <v>-1027.5</v>
+        <v>-38.75</v>
       </c>
       <c r="R113">
-        <v>1027.5</v>
+        <v>38.75</v>
       </c>
       <c r="S113">
-        <v>24900</v>
+        <v>24450</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
@@ -5649,37 +5647,37 @@
         <v>25</v>
       </c>
       <c r="G114" s="2">
-        <v>45503</v>
+        <v>45499</v>
       </c>
       <c r="H114" s="1">
-        <v>101.95</v>
+        <v>138</v>
       </c>
       <c r="I114" s="1">
-        <v>2548.75</v>
+        <v>3450</v>
       </c>
       <c r="J114" s="2">
-        <v>45503</v>
+        <v>45499</v>
       </c>
       <c r="K114" s="1">
-        <v>102.75</v>
+        <v>106.15</v>
       </c>
       <c r="L114" s="1">
-        <v>2568.75</v>
+        <v>2653.75</v>
       </c>
       <c r="M114">
         <v>0</v>
       </c>
       <c r="N114">
-        <v>20</v>
+        <v>-796.25</v>
       </c>
       <c r="O114">
-        <v>20</v>
+        <v>-796.25</v>
       </c>
       <c r="R114">
-        <v>20</v>
+        <v>796.25</v>
       </c>
       <c r="S114">
-        <v>24900</v>
+        <v>24650</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
@@ -5696,37 +5694,37 @@
         <v>51</v>
       </c>
       <c r="F115">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G115" s="2">
-        <v>45503</v>
+        <v>45502</v>
       </c>
       <c r="H115" s="1">
-        <v>101.95</v>
+        <v>125</v>
       </c>
       <c r="I115" s="1">
-        <v>2548.75</v>
+        <v>6250</v>
       </c>
       <c r="J115" s="2">
-        <v>45503</v>
+        <v>45502</v>
       </c>
       <c r="K115" s="1">
-        <v>102.75</v>
+        <v>83.85</v>
       </c>
       <c r="L115" s="1">
-        <v>2568.75</v>
+        <v>4192.5</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
       <c r="N115">
-        <v>20</v>
+        <v>-2057.5</v>
       </c>
       <c r="O115">
-        <v>20</v>
+        <v>-2057.5</v>
       </c>
       <c r="R115">
-        <v>20</v>
+        <v>2057.5</v>
       </c>
       <c r="S115">
         <v>24900</v>
@@ -5749,37 +5747,37 @@
         <v>25</v>
       </c>
       <c r="G116" s="2">
-        <v>45504</v>
+        <v>45502</v>
       </c>
       <c r="H116" s="1">
-        <v>98.85</v>
+        <v>125</v>
       </c>
       <c r="I116" s="1">
-        <v>2471.25</v>
+        <v>3125</v>
       </c>
       <c r="J116" s="2">
-        <v>45504</v>
+        <v>45502</v>
       </c>
       <c r="K116" s="1">
-        <v>85.45</v>
+        <v>83.9</v>
       </c>
       <c r="L116" s="1">
-        <v>2136.25</v>
+        <v>2097.5</v>
       </c>
       <c r="M116">
         <v>0</v>
       </c>
       <c r="N116">
-        <v>-335</v>
+        <v>-1027.5</v>
       </c>
       <c r="O116">
-        <v>-335</v>
+        <v>-1027.5</v>
       </c>
       <c r="R116">
-        <v>335</v>
+        <v>1027.5</v>
       </c>
       <c r="S116">
-        <v>24950</v>
+        <v>24900</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
@@ -5799,72 +5797,372 @@
         <v>25</v>
       </c>
       <c r="G117" s="2">
-        <v>45504</v>
+        <v>45503</v>
       </c>
       <c r="H117" s="1">
-        <v>97.45</v>
+        <v>101.95</v>
       </c>
       <c r="I117" s="1">
-        <v>2436.25</v>
+        <v>2548.75</v>
       </c>
       <c r="J117" s="2">
-        <v>45504</v>
+        <v>45503</v>
       </c>
       <c r="K117" s="1">
-        <v>104.55</v>
+        <v>102.75</v>
       </c>
       <c r="L117" s="1">
-        <v>2613.75</v>
+        <v>2568.75</v>
       </c>
       <c r="M117">
         <v>0</v>
       </c>
       <c r="N117">
-        <v>177.5</v>
+        <v>20</v>
       </c>
       <c r="O117">
-        <v>177.5</v>
+        <v>20</v>
       </c>
       <c r="R117">
-        <v>177.5</v>
+        <v>20</v>
       </c>
       <c r="S117">
-        <v>25000</v>
+        <v>24900</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s">
+        <v>49</v>
+      </c>
+      <c r="E118" t="s">
+        <v>51</v>
+      </c>
+      <c r="F118">
+        <v>25</v>
+      </c>
+      <c r="G118" s="2">
+        <v>45503</v>
+      </c>
+      <c r="H118" s="1">
+        <v>101.95</v>
+      </c>
+      <c r="I118" s="1">
+        <v>2548.75</v>
+      </c>
+      <c r="J118" s="2">
+        <v>45503</v>
+      </c>
+      <c r="K118" s="1">
+        <v>102.75</v>
+      </c>
+      <c r="L118" s="1">
+        <v>2568.75</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>20</v>
+      </c>
+      <c r="O118">
+        <v>20</v>
+      </c>
+      <c r="R118">
+        <v>20</v>
+      </c>
+      <c r="S118">
+        <v>24900</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" t="s">
+        <v>49</v>
+      </c>
+      <c r="E119" t="s">
+        <v>51</v>
+      </c>
+      <c r="F119">
+        <v>25</v>
+      </c>
+      <c r="G119" s="2">
+        <v>45504</v>
+      </c>
+      <c r="H119" s="1">
+        <v>98.85</v>
+      </c>
+      <c r="I119" s="1">
+        <v>2471.25</v>
+      </c>
+      <c r="J119" s="2">
+        <v>45504</v>
+      </c>
+      <c r="K119" s="1">
+        <v>85.45</v>
+      </c>
+      <c r="L119" s="1">
+        <v>2136.25</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>-335</v>
+      </c>
+      <c r="O119">
+        <v>-335</v>
+      </c>
+      <c r="R119">
+        <v>335</v>
+      </c>
+      <c r="S119">
+        <v>24950</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" t="s">
+        <v>49</v>
+      </c>
+      <c r="E120" t="s">
+        <v>51</v>
+      </c>
+      <c r="F120">
+        <v>125</v>
+      </c>
+      <c r="G120" s="2">
+        <v>45505</v>
+      </c>
+      <c r="H120" s="1">
+        <v>7</v>
+      </c>
+      <c r="I120" s="1">
+        <v>875</v>
+      </c>
+      <c r="J120" s="2">
+        <v>45505</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L120" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>-868.75</v>
+      </c>
+      <c r="O120">
+        <v>-868.75</v>
+      </c>
+      <c r="R120">
+        <v>868.75</v>
+      </c>
+      <c r="S120">
+        <v>24950</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" t="s">
+        <v>49</v>
+      </c>
+      <c r="E121" t="s">
+        <v>51</v>
+      </c>
+      <c r="F121">
+        <v>25</v>
+      </c>
+      <c r="G121" s="2">
+        <v>45504</v>
+      </c>
+      <c r="H121" s="1">
+        <v>97.45</v>
+      </c>
+      <c r="I121" s="1">
+        <v>2436.25</v>
+      </c>
+      <c r="J121" s="2">
+        <v>45504</v>
+      </c>
+      <c r="K121" s="1">
+        <v>104.55</v>
+      </c>
+      <c r="L121" s="1">
+        <v>2613.75</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>177.5</v>
+      </c>
+      <c r="O121">
+        <v>177.5</v>
+      </c>
+      <c r="R121">
+        <v>177.5</v>
+      </c>
+      <c r="S121">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>49</v>
+      </c>
+      <c r="E122" t="s">
+        <v>51</v>
+      </c>
+      <c r="F122">
+        <v>25</v>
+      </c>
+      <c r="G122" s="2">
+        <v>45506</v>
+      </c>
+      <c r="H122" s="1">
+        <v>166</v>
+      </c>
+      <c r="I122" s="1">
+        <v>4150</v>
+      </c>
+      <c r="J122" s="2">
+        <v>45506</v>
+      </c>
+      <c r="K122" s="1">
+        <v>167.85</v>
+      </c>
+      <c r="L122" s="1">
+        <v>4196.25</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>46.25</v>
+      </c>
+      <c r="O122">
+        <v>46.25</v>
+      </c>
+      <c r="R122">
+        <v>46.25</v>
+      </c>
+      <c r="S122">
+        <v>24800</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" t="s">
+        <v>49</v>
+      </c>
+      <c r="E123" t="s">
+        <v>51</v>
+      </c>
+      <c r="F123">
+        <v>25</v>
+      </c>
+      <c r="G123" s="2">
+        <v>45506</v>
+      </c>
+      <c r="H123" s="1">
+        <v>160</v>
+      </c>
+      <c r="I123" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J123" s="2">
+        <v>45506</v>
+      </c>
+      <c r="K123" s="1">
+        <v>177.75</v>
+      </c>
+      <c r="L123" s="1">
+        <v>4443.75</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>443.75</v>
+      </c>
+      <c r="O123">
+        <v>443.75</v>
+      </c>
+      <c r="R123">
+        <v>443.75</v>
+      </c>
+      <c r="S123">
+        <v>24800</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>23</v>
       </c>
-      <c r="N119">
-        <v>5373.75</v>
-      </c>
-      <c r="O119">
-        <v>5373.75</v>
-      </c>
-      <c r="P119">
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <v>0</v>
-      </c>
-      <c r="R119">
-        <v>69521.25</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+      <c r="N125">
+        <v>5720</v>
+      </c>
+      <c r="O125">
+        <v>5720</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>71605</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5872,7 +6170,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A125:I125"/>
+    <mergeCell ref="A131:I131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5882,9 +6180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -6068,9 +6364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="K3" workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
